--- a/two_node_info.xlsx
+++ b/two_node_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3002"/>
+  <dimension ref="A1:D3010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4573,11 +4573,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.0021</v>
+        <v>0.0013</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="n">
-        <v>0.0021</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="297">
@@ -8815,11 +8815,11 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="C599" t="inlineStr"/>
       <c r="D599" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="600">
@@ -10131,11 +10131,11 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
       <c r="C693" t="inlineStr"/>
       <c r="D693" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="694">
@@ -11027,11 +11027,11 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="C757" t="inlineStr"/>
       <c r="D757" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="758">
@@ -12049,11 +12049,11 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="C830" t="inlineStr"/>
       <c r="D830" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="831">
@@ -19203,11 +19203,11 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="1342">
@@ -20911,11 +20911,11 @@
         </is>
       </c>
       <c r="B1463" t="n">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
       <c r="C1463" t="inlineStr"/>
       <c r="D1463" t="n">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="1464">
@@ -21107,11 +21107,11 @@
         </is>
       </c>
       <c r="B1477" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="1478">
@@ -23095,11 +23095,11 @@
         </is>
       </c>
       <c r="B1619" t="n">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
       <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="n">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="1620">
@@ -25881,11 +25881,11 @@
         </is>
       </c>
       <c r="B1818" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="C1818" t="inlineStr"/>
       <c r="D1818" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="1819">
@@ -32559,11 +32559,11 @@
         </is>
       </c>
       <c r="B2295" t="n">
-        <v>0.0013</v>
+        <v>0.0022</v>
       </c>
       <c r="C2295" t="inlineStr"/>
       <c r="D2295" t="n">
-        <v>0.0013</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="2296">
@@ -33091,11 +33091,11 @@
         </is>
       </c>
       <c r="B2333" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="C2333" t="inlineStr"/>
       <c r="D2333" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="2334">
@@ -34365,11 +34365,11 @@
         </is>
       </c>
       <c r="B2424" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="C2424" t="inlineStr"/>
       <c r="D2424" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2425">
@@ -36843,11 +36843,11 @@
         </is>
       </c>
       <c r="B2601" t="n">
-        <v>0.0023</v>
+        <v>0.0013</v>
       </c>
       <c r="C2601" t="inlineStr"/>
       <c r="D2601" t="n">
-        <v>0.0023</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2602">
@@ -42261,11 +42261,13 @@
         </is>
       </c>
       <c r="B2988" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2988" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2988" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2988" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2989">
@@ -42275,11 +42277,13 @@
         </is>
       </c>
       <c r="B2989" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2989" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2989" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2989" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2990">
@@ -42289,11 +42293,13 @@
         </is>
       </c>
       <c r="B2990" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2990" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2990" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2990" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2991">
@@ -42303,11 +42309,13 @@
         </is>
       </c>
       <c r="B2991" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2991" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2991" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2991" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2992">
@@ -42317,11 +42325,13 @@
         </is>
       </c>
       <c r="B2992" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2992" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2992" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2992" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2993">
@@ -42331,11 +42341,13 @@
         </is>
       </c>
       <c r="B2993" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2993" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2993" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2993" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2994">
@@ -42345,11 +42357,13 @@
         </is>
       </c>
       <c r="B2994" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2994" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2994" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2994" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2995">
@@ -42359,11 +42373,13 @@
         </is>
       </c>
       <c r="B2995" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2995" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2995" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2995" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2996">
@@ -42373,11 +42389,13 @@
         </is>
       </c>
       <c r="B2996" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2996" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2996" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2996" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2997">
@@ -42387,11 +42405,13 @@
         </is>
       </c>
       <c r="B2997" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2997" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2997" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2997" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2998">
@@ -42401,11 +42421,13 @@
         </is>
       </c>
       <c r="B2998" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2998" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2998" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2998" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="2999">
@@ -42415,11 +42437,13 @@
         </is>
       </c>
       <c r="B2999" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C2999" t="inlineStr"/>
+        <v>0.0011</v>
+      </c>
+      <c r="C2999" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="D2999" t="n">
-        <v>0.0013</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="3000">
@@ -42467,6 +42491,134 @@
         <v>0.0024</v>
       </c>
       <c r="D3002" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" s="1" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+      <c r="B3003" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3003" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3003" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" s="1" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="B3004" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3004" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3004" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" s="1" t="inlineStr">
+        <is>
+          <t>3003</t>
+        </is>
+      </c>
+      <c r="B3005" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3005" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3005" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" s="1" t="inlineStr">
+        <is>
+          <t>3004</t>
+        </is>
+      </c>
+      <c r="B3006" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3006" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3006" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" s="1" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="B3007" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3007" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3007" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" s="1" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="B3008" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3008" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3008" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" s="1" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3009" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3009" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3009" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" s="1" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B3010" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C3010" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D3010" t="n">
         <v>0.0024</v>
       </c>
     </row>

--- a/two_node_info.xlsx
+++ b/two_node_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3010"/>
+  <dimension ref="A1:D3026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3789,11 +3789,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0013</v>
+        <v>0.0016</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>0.0013</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="241">
@@ -8815,11 +8815,11 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="C599" t="inlineStr"/>
       <c r="D599" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="600">
@@ -10131,11 +10131,11 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0.0025</v>
+        <v>0.0013</v>
       </c>
       <c r="C693" t="inlineStr"/>
       <c r="D693" t="n">
-        <v>0.0025</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="694">
@@ -10705,11 +10705,11 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>0.0013</v>
+        <v>0.0021</v>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="n">
-        <v>0.0013</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="735">
@@ -11027,11 +11027,11 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="C757" t="inlineStr"/>
       <c r="D757" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="758">
@@ -15591,11 +15591,11 @@
         </is>
       </c>
       <c r="B1083" t="n">
-        <v>0.0013</v>
+        <v>0.0023</v>
       </c>
       <c r="C1083" t="inlineStr"/>
       <c r="D1083" t="n">
-        <v>0.0013</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="1084">
@@ -19203,11 +19203,11 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="1342">
@@ -20911,11 +20911,11 @@
         </is>
       </c>
       <c r="B1463" t="n">
-        <v>0.0019</v>
+        <v>0.0013</v>
       </c>
       <c r="C1463" t="inlineStr"/>
       <c r="D1463" t="n">
-        <v>0.0019</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="1464">
@@ -21107,11 +21107,11 @@
         </is>
       </c>
       <c r="B1477" t="n">
-        <v>0.0025</v>
+        <v>0.0013</v>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="n">
-        <v>0.0025</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="1478">
@@ -27309,11 +27309,11 @@
         </is>
       </c>
       <c r="B1920" t="n">
-        <v>0.0013</v>
+        <v>0.002</v>
       </c>
       <c r="C1920" t="inlineStr"/>
       <c r="D1920" t="n">
-        <v>0.0013</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="1921">
@@ -27351,11 +27351,11 @@
         </is>
       </c>
       <c r="B1923" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="C1923" t="inlineStr"/>
       <c r="D1923" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="1924">
@@ -29199,11 +29199,11 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="C2055" t="inlineStr"/>
       <c r="D2055" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="2056">
@@ -31425,11 +31425,11 @@
         </is>
       </c>
       <c r="B2214" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="C2214" t="inlineStr"/>
       <c r="D2214" t="n">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="2215">
@@ -31677,11 +31677,11 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
       <c r="C2232" t="inlineStr"/>
       <c r="D2232" t="n">
-        <v>0.0013</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="2233">
@@ -32559,11 +32559,11 @@
         </is>
       </c>
       <c r="B2295" t="n">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
       <c r="C2295" t="inlineStr"/>
       <c r="D2295" t="n">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2296">
@@ -33091,11 +33091,11 @@
         </is>
       </c>
       <c r="B2333" t="n">
-        <v>0.0026</v>
+        <v>0.0013</v>
       </c>
       <c r="C2333" t="inlineStr"/>
       <c r="D2333" t="n">
-        <v>0.0026</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2334">
@@ -36787,11 +36787,11 @@
         </is>
       </c>
       <c r="B2597" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="C2597" t="inlineStr"/>
       <c r="D2597" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="2598">
@@ -39069,11 +39069,11 @@
         </is>
       </c>
       <c r="B2760" t="n">
-        <v>0.0013</v>
+        <v>0.002</v>
       </c>
       <c r="C2760" t="inlineStr"/>
       <c r="D2760" t="n">
-        <v>0.0013</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="2761">
@@ -42261,13 +42261,11 @@
         </is>
       </c>
       <c r="B2988" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2988" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2988" t="inlineStr"/>
       <c r="D2988" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2989">
@@ -42277,13 +42275,11 @@
         </is>
       </c>
       <c r="B2989" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2989" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2989" t="inlineStr"/>
       <c r="D2989" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2990">
@@ -42293,13 +42289,11 @@
         </is>
       </c>
       <c r="B2990" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2990" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2990" t="inlineStr"/>
       <c r="D2990" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2991">
@@ -42309,13 +42303,11 @@
         </is>
       </c>
       <c r="B2991" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2991" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2991" t="inlineStr"/>
       <c r="D2991" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2992">
@@ -42325,13 +42317,11 @@
         </is>
       </c>
       <c r="B2992" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2992" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2992" t="inlineStr"/>
       <c r="D2992" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2993">
@@ -42341,13 +42331,11 @@
         </is>
       </c>
       <c r="B2993" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2993" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2993" t="inlineStr"/>
       <c r="D2993" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2994">
@@ -42357,13 +42345,11 @@
         </is>
       </c>
       <c r="B2994" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2994" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2994" t="inlineStr"/>
       <c r="D2994" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2995">
@@ -42373,13 +42359,11 @@
         </is>
       </c>
       <c r="B2995" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2995" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2995" t="inlineStr"/>
       <c r="D2995" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2996">
@@ -42389,13 +42373,11 @@
         </is>
       </c>
       <c r="B2996" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2996" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2996" t="inlineStr"/>
       <c r="D2996" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2997">
@@ -42405,13 +42387,11 @@
         </is>
       </c>
       <c r="B2997" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2997" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2997" t="inlineStr"/>
       <c r="D2997" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2998">
@@ -42421,13 +42401,11 @@
         </is>
       </c>
       <c r="B2998" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2998" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2998" t="inlineStr"/>
       <c r="D2998" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="2999">
@@ -42437,13 +42415,11 @@
         </is>
       </c>
       <c r="B2999" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C2999" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C2999" t="inlineStr"/>
       <c r="D2999" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3000">
@@ -42453,13 +42429,11 @@
         </is>
       </c>
       <c r="B3000" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3000" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3000" t="inlineStr"/>
       <c r="D3000" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3001">
@@ -42469,13 +42443,11 @@
         </is>
       </c>
       <c r="B3001" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3001" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3001" t="inlineStr"/>
       <c r="D3001" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3002">
@@ -42485,13 +42457,11 @@
         </is>
       </c>
       <c r="B3002" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3002" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3002" t="inlineStr"/>
       <c r="D3002" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3003">
@@ -42501,13 +42471,11 @@
         </is>
       </c>
       <c r="B3003" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3003" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3003" t="inlineStr"/>
       <c r="D3003" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3004">
@@ -42517,13 +42485,11 @@
         </is>
       </c>
       <c r="B3004" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3004" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3004" t="inlineStr"/>
       <c r="D3004" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3005">
@@ -42533,13 +42499,11 @@
         </is>
       </c>
       <c r="B3005" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3005" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3006">
@@ -42549,13 +42513,11 @@
         </is>
       </c>
       <c r="B3006" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3006" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3006" t="inlineStr"/>
       <c r="D3006" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3007">
@@ -42565,13 +42527,11 @@
         </is>
       </c>
       <c r="B3007" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3007" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3007" t="inlineStr"/>
       <c r="D3007" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3008">
@@ -42581,13 +42541,11 @@
         </is>
       </c>
       <c r="B3008" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3008" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3008" t="inlineStr"/>
       <c r="D3008" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3009">
@@ -42597,13 +42555,11 @@
         </is>
       </c>
       <c r="B3009" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3009" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3009" t="inlineStr"/>
       <c r="D3009" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3010">
@@ -42613,13 +42569,235 @@
         </is>
       </c>
       <c r="B3010" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="C3010" t="n">
-        <v>0.0024</v>
-      </c>
+        <v>0.0013</v>
+      </c>
+      <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="n">
-        <v>0.0024</v>
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" s="1" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="B3011" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3011" t="inlineStr"/>
+      <c r="D3011" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" s="1" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="B3012" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3012" t="inlineStr"/>
+      <c r="D3012" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" s="1" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="B3013" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3013" t="inlineStr"/>
+      <c r="D3013" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" s="1" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="B3014" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3014" t="inlineStr"/>
+      <c r="D3014" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" s="1" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="B3015" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3015" t="inlineStr"/>
+      <c r="D3015" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" s="1" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="B3016" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3016" t="inlineStr"/>
+      <c r="D3016" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="1" t="inlineStr">
+        <is>
+          <t>3015</t>
+        </is>
+      </c>
+      <c r="B3017" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3017" t="inlineStr"/>
+      <c r="D3017" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="1" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="B3018" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3018" t="inlineStr"/>
+      <c r="D3018" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="1" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B3019" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3019" t="inlineStr"/>
+      <c r="D3019" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="1" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="B3020" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3020" t="inlineStr"/>
+      <c r="D3020" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="1" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="B3021" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3021" t="inlineStr"/>
+      <c r="D3021" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" s="1" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="B3022" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3022" t="inlineStr"/>
+      <c r="D3022" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" s="1" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="B3023" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3023" t="inlineStr"/>
+      <c r="D3023" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" s="1" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="B3024" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3024" t="inlineStr"/>
+      <c r="D3024" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" s="1" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="B3025" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3025" t="inlineStr"/>
+      <c r="D3025" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" s="1" t="inlineStr">
+        <is>
+          <t>3024</t>
+        </is>
+      </c>
+      <c r="B3026" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C3026" t="inlineStr"/>
+      <c r="D3026" t="n">
+        <v>0.0013</v>
       </c>
     </row>
   </sheetData>
